--- a/media/kegiatan/psm/rakernis/exported/REKAPITULASI RAPAT KERJA TEKNIS2024.xlsx
+++ b/media/kegiatan/psm/rakernis/exported/REKAPITULASI RAPAT KERJA TEKNIS2024.xlsx
@@ -460,7 +460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,9 +472,9 @@
     <col width="28.8" customWidth="1" min="2" max="2"/>
     <col width="16.8" customWidth="1" min="3" max="3"/>
     <col width="14.4" customWidth="1" min="4" max="4"/>
-    <col width="33.6" customWidth="1" min="5" max="5"/>
+    <col width="36" customWidth="1" min="5" max="5"/>
     <col width="13.2" customWidth="1" min="6" max="6"/>
-    <col width="10.8" customWidth="1" min="7" max="7"/>
+    <col width="13.2" customWidth="1" min="7" max="7"/>
     <col width="14.4" customWidth="1" min="8" max="8"/>
     <col width="32.4" customWidth="1" min="9" max="9"/>
   </cols>
@@ -543,7 +543,7 @@
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>BNN Kabupaten Aceh Tamiang</t>
+          <t>BNN Kabupaten Aceh Selatan</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
@@ -553,12 +553,12 @@
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>ad</t>
+          <t>asd</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>asd</t>
+          <t>asdasd</t>
         </is>
       </c>
       <c r="I2" s="2" t="inlineStr">
@@ -568,13 +568,19 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="n"/>
-      <c r="B3" s="5" t="n"/>
+      <c r="A3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>BNN Pusat</t>
+        </is>
+      </c>
       <c r="C3" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
@@ -583,28 +589,28 @@
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>asd</t>
+          <t>Mom</t>
         </is>
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>asd</t>
+          <t>Dad</t>
         </is>
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>asd</t>
+          <t>Sister</t>
         </is>
       </c>
       <c r="I3" s="2" t="inlineStr">
         <is>
-          <t>asd</t>
+          <t>Brother</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
@@ -624,31 +630,68 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>TEST</t>
+          <t>asdasd</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>TEST</t>
+          <t>asdasd</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>TEST</t>
+          <t>asdasd</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>TEST</t>
+          <t>asdasd</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n"/>
+      <c r="B5" s="5" t="n"/>
+      <c r="C5" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>45352</v>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BNN Kabupaten Bandung Barat </t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>test edit</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>test edit</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>test edit</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4"/>
+  <mergeCells count="6">
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B2"/>
+    <mergeCell ref="A2"/>
+    <mergeCell ref="B3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
